--- a/branches/apply-cardinality-fixes/ValueSet-vs-condition.xlsx
+++ b/branches/apply-cardinality-fixes/ValueSet-vs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/apply-cardinality-fixes/ValueSet-vs-condition.xlsx
+++ b/branches/apply-cardinality-fixes/ValueSet-vs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/apply-cardinality-fixes/ValueSet-vs-condition.xlsx
+++ b/branches/apply-cardinality-fixes/ValueSet-vs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
